--- a/medicine/Autisme/Mr._Wolff/Mr._Wolff.xlsx
+++ b/medicine/Autisme/Mr._Wolff/Mr._Wolff.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mr. Wolff'' ou Le Comptable au Québec (The Accountant)[1], est un thriller américain réalisé par Gavin O'Connor et sorti en 2016.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mr. Wolff'' ou Le Comptable au Québec (The Accountant), est un thriller américain réalisé par Gavin O'Connor et sorti en 2016.
 Le tournage de Mr. Wolff 2, toujours réalisé par Gavin O'Connor, débute en 2024.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Christian Wolff (Ben Affleck) est un autiste, génie mathématique et spécialiste de juricomptabilité qui travaille à son compte comme comptable en Illinois. Caché derrière cette couverture passe-partout, il accepte en fait des contrats de groupes criminels transmis par téléphone portable par une femme inconnue, « La Voix ». Dans son enfance, lors d'une visite au Harbor Neuroscience Institute, centre pour enfants autistes, les parents de Christian reçoivent l'offre de laisser leur enfant sous la responsabilité du directeur, qui propose de trouver les conditions de vie où Christian s'épanouira. Entre-temps, Christian établit un lien avec Justine, la fille du directeur, troublée et muette. Le père de Christian, un officier militaire américain travaillant dans le domaine de la guerre psychologique, rejette la proposition, jugeant que son fils doit surmonter son handicap en s'endurcissant physiquement et psychologiquement. Plus tard, la mère quitte la famille parce qu'elle est incapable de supporter plus longuement les crises autistiques, parfois violentes, de Christian ; elle abandonne aussi son deuxième garçon, Braxton. Dans le but de les aider à relever les défis de leur vie adulte, le père engage des spécialistes pour former ses deux fils au combat.
 Raymond King, de la branche des crimes économiques du département du Trésor des États-Unis, cherche à connaître l'identité de l'homme qu'il surnomme « Le Comptable ». Il recrute une jeune analyste, Marybeth Medina, pour identifier et retrouver l'homme, menaçant d'exposer son passé criminel si elle refuse ou échoue. Les seuls indices sont des photos, les prête-noms du « Comptable » et une vidéo où des membres de la famille Gambino ont été tués, King croyant « Le Comptable » responsable sans toutefois connaître ses raisons.
@@ -549,13 +563,15 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : The Accountant
 Titre français : Mr. Wolff
 Titre québécois : Le comptable
 Réalisation :  Gavin O'Connor
-Scénario : Bill Dubuque[2]
+Scénario : Bill Dubuque
 Musique : Mark Isham
 Direction artistique : Keith P. Cunningham
 Décors : John Collins
@@ -565,13 +581,13 @@
 Production : Lynette Howell et Mark Williams
 Sociétés de production : Electric City Entertainment, RatPac-Dune Entertainment et Zero Gravity Management
 Société de distribution : Warner Bros.
-Budget : 44 millions de dollars[3]
+Budget : 44 millions de dollars
 Pays de production :  États-Unis
 Langue originale : anglais
 Format : Couleurs - 35 mm - 2,35:1 - Son Dolby numérique
 Genre : thriller
-Durée : 128 minutes[4]
-Dates de sortie[5] :
+Durée : 128 minutes
+Dates de sortie :
 États-Unis, Canada : 14 octobre 2016
 Suisse : 20 octobre 2016
 France, Belgique : 2 novembre 2016</t>
@@ -602,7 +618,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Ben Affleck (VF : Boris Rehlinger ; VQ : Pierre Auger) : Christian « Chris » Wolff
@@ -626,7 +644,7 @@
 Studio de doublage : Deluxe Media Paris
 Direction artistique :
 Adaptation : Sylvie Caurier
- Source et légende : version française (VF) sur RS Doublage[6] et selon le carton du doublage français cinématographique ; version québécoise (VQ) sur Doublage.qc.ca[7]</t>
+ Source et légende : version française (VF) sur RS Doublage et selon le carton du doublage français cinématographique ; version québécoise (VQ) sur Doublage.qc.ca</t>
         </is>
       </c>
     </row>
@@ -656,15 +674,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Genèse et développement
-Le projet est initialement développé par le producteur Mark Williams : « J'avais entendu parler d'expert-comptable judiciaire et je pensais que c'était une sorte d'enquêteur. Mais j'ai commencé à creuser le sujet et je me suis dit qu'on pouvait en intensifier les enjeux en réfléchissant aux personnes pour lesquelles il travaille et j'ai trouvé de quoi rendre l'action plus captivante. Une fois les grandes lignes du projet en tête, j'en ai parlé à Bill Dubuque, un auteur avec lequel j'ai déjà collaboré et qui est tout simplement génial. Il a immédiatement aimé cette idée et s'est attaqué à la rédaction du scénario »[8]. Bill Dubuque écrit ensuite le scénario, qui figure sur la Black List 2011 des meilleurs scénarios en attente de production[8].
-Attribution des rôles
-Pour préparer son rôle, Ben Affleck, avec le réalisateur Gavin O'Connor, a consulté de nombreux spécialistes de l'autisme : « Gavin O'Connor a fait toutes ces recherches avec moi, ce qui nous a permis d'acquérir un vocabulaire qu'on comprenait tous les deux et qui nous a grandement facilité les choses. Gavin est un formidable perfectionniste. On a appris que ce que les gens appellent le trouble du spectre autistique correspond à une grande diversité de conditions. J'ai aussi essayé de trouver le juste équilibre entre la volonté de donner des infos sur Christian au spectateur et la nécessité de ne pas le faire d'une manière trop évidente. »[8]
-Anna Kendrick rejoint le projet en 2014. Sa mère, véritable experte-comptable, a supervisé le script[8]. L'actrice explique s'être beaucoup inspirée de sa mère[9].
-Tournage
-Le tournage débute le 19 janvier 2015 à Atlanta en Géorgie[10],[11]. L'équipe se rend également à Decatur, notamment en studio pour y tourner les scènes dans la caravane Airstream de Christian Wolff[8]. Courant mars 2015, des scènes sont tournées au Georgia Institute of Technology[12]. Lors de la scène finale, on voit le camping-car de Christian Wolff traverser le pont Bethany, sur le lac Allatoona, et s'enfoncer dans la forêt du parc naturel Red Top Mountain.
-Musique
-La musique du film est composée par Mark Isham, qui avait déjà collaboré avec le cinéaste Gavin O'Connor sur Miracle (2004) et Warrior (2011). Le réalisateur explique le travail du compositeur : « Christian est un génie des mathématiques qui vit dans un monde de chiffres et de séquences numériques, et je souhaitais que la musique en rende compte. Des morceaux de la bande-son ont été créés à partir de simples motifs musicaux qui se répètent avec suffisamment de variations et d'imprévisibilité dans les tempos pour créer de la texture et de la nuance. La musique de Mark traduit ce mélange d'action, d'émotion et de suspense qui caractérise le film tout en rendant plus perceptible la sensibilité de l'histoire. Ces thèmes qui s'entremêlent reflètent la dualité des personnages et rendent le film plus dramatique. L'intrigue est pleine de mystères… tout le monde a des secrets »[8].
+          <t>Genèse et développement</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le projet est initialement développé par le producteur Mark Williams : « J'avais entendu parler d'expert-comptable judiciaire et je pensais que c'était une sorte d'enquêteur. Mais j'ai commencé à creuser le sujet et je me suis dit qu'on pouvait en intensifier les enjeux en réfléchissant aux personnes pour lesquelles il travaille et j'ai trouvé de quoi rendre l'action plus captivante. Une fois les grandes lignes du projet en tête, j'en ai parlé à Bill Dubuque, un auteur avec lequel j'ai déjà collaboré et qui est tout simplement génial. Il a immédiatement aimé cette idée et s'est attaqué à la rédaction du scénario ». Bill Dubuque écrit ensuite le scénario, qui figure sur la Black List 2011 des meilleurs scénarios en attente de production.
 </t>
         </is>
       </c>
@@ -690,16 +706,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Sortie</t>
+          <t>Production</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Critique
-Le film reçoit des critiques partagées. Sur l'agrégateur Rotten Tomatoes, il n'obtient que 50 % d'opinions favorables, pour 215 avis[13]. Sur Metacritic, il décroche une note moyenne de 51/100, pour 45 critiques[14].
-En France, les critiques sont également partagées : le film obtient une moyenne de 3/5, pour 24 titres de presse recensés par le site Allociné[15].
-Box-office
-Le film prend directement la tête du box-office américain avec 24,7 millions de $ de recettes le premier week-end d'exploitation[3]. Si ce résultat demeure le dixième démarrage de la carrière de Ben Affleck[16], il s'avère être le meilleur démarrage de la carrière du réalisateur Gavin O'Connor[17]. En fin d'exploitation, Mr. Wolff fait un résultat honnête avec plus de 86 millions $ au vu de son coût de production (44 millions $)[3]. À l'international, le long-métrage rapporte 68,9 millions de $, portant le total plus de 155 millions $, ce qui est un succès commercial[3].
+          <t>Attribution des rôles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour préparer son rôle, Ben Affleck, avec le réalisateur Gavin O'Connor, a consulté de nombreux spécialistes de l'autisme : « Gavin O'Connor a fait toutes ces recherches avec moi, ce qui nous a permis d'acquérir un vocabulaire qu'on comprenait tous les deux et qui nous a grandement facilité les choses. Gavin est un formidable perfectionniste. On a appris que ce que les gens appellent le trouble du spectre autistique correspond à une grande diversité de conditions. J'ai aussi essayé de trouver le juste équilibre entre la volonté de donner des infos sur Christian au spectateur et la nécessité de ne pas le faire d'une manière trop évidente. »
+Anna Kendrick rejoint le projet en 2014. Sa mère, véritable experte-comptable, a supervisé le script. L'actrice explique s'être beaucoup inspirée de sa mère.
 </t>
         </is>
       </c>
@@ -725,12 +744,163 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage débute le 19 janvier 2015 à Atlanta en Géorgie,. L'équipe se rend également à Decatur, notamment en studio pour y tourner les scènes dans la caravane Airstream de Christian Wolff. Courant mars 2015, des scènes sont tournées au Georgia Institute of Technology. Lors de la scène finale, on voit le camping-car de Christian Wolff traverser le pont Bethany, sur le lac Allatoona, et s'enfoncer dans la forêt du parc naturel Red Top Mountain.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mr._Wolff</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mr._Wolff</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Musique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La musique du film est composée par Mark Isham, qui avait déjà collaboré avec le cinéaste Gavin O'Connor sur Miracle (2004) et Warrior (2011). Le réalisateur explique le travail du compositeur : « Christian est un génie des mathématiques qui vit dans un monde de chiffres et de séquences numériques, et je souhaitais que la musique en rende compte. Des morceaux de la bande-son ont été créés à partir de simples motifs musicaux qui se répètent avec suffisamment de variations et d'imprévisibilité dans les tempos pour créer de la texture et de la nuance. La musique de Mark traduit ce mélange d'action, d'émotion et de suspense qui caractérise le film tout en rendant plus perceptible la sensibilité de l'histoire. Ces thèmes qui s'entremêlent reflètent la dualité des personnages et rendent le film plus dramatique. L'intrigue est pleine de mystères… tout le monde a des secrets ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Mr._Wolff</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mr._Wolff</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Sortie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Critique</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film reçoit des critiques partagées. Sur l'agrégateur Rotten Tomatoes, il n'obtient que 50 % d'opinions favorables, pour 215 avis. Sur Metacritic, il décroche une note moyenne de 51/100, pour 45 critiques.
+En France, les critiques sont également partagées : le film obtient une moyenne de 3/5, pour 24 titres de presse recensés par le site Allociné.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Mr._Wolff</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mr._Wolff</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Sortie</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Box-office</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film prend directement la tête du box-office américain avec 24,7 millions de $ de recettes le premier week-end d'exploitation. Si ce résultat demeure le dixième démarrage de la carrière de Ben Affleck, il s'avère être le meilleur démarrage de la carrière du réalisateur Gavin O'Connor. En fin d'exploitation, Mr. Wolff fait un résultat honnête avec plus de 86 millions $ au vu de son coût de production (44 millions $). À l'international, le long-métrage rapporte 68,9 millions de $, portant le total plus de 155 millions $, ce qui est un succès commercial.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Mr._Wolff</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mr._Wolff</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Suite</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En juin 2017, il est annoncé qu'une suite est développée par Warner Bros., avec les retours presque assurés du réalisateur Gavin O'Connor et du scénariste Bill Dubuque[20]. Le tournage débute en mars 2024[21].
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En juin 2017, il est annoncé qu'une suite est développée par Warner Bros., avec les retours presque assurés du réalisateur Gavin O'Connor et du scénariste Bill Dubuque. Le tournage débute en mars 2024.
 </t>
         </is>
       </c>
